--- a/2P sheets/all 2P/RIC_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/RIC_Genus_2PSummary.xlsx
@@ -8308,28 +8308,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00285</v>
+        <v>0.000285</v>
       </c>
       <c r="F2" t="n">
         <v>-112.127735916756</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0460172228202368</v>
+        <v>0.00460172228202368</v>
       </c>
       <c r="H2" t="n">
-        <v>0.107792105889167</v>
+        <v>0.0107792105889167</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.0864847830515</v>
+        <v>-1.20864847830515</v>
       </c>
       <c r="J2" t="n">
-        <v>-290.075634793237</v>
+        <v>-29.0075634793237</v>
       </c>
       <c r="K2" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L2" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M2" t="n">
         <v>6.24368189171242</v>
@@ -8338,7 +8338,7 @@
         <v>0.5</v>
       </c>
       <c r="O2" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P2" t="n">
         <v>12.4873637834248</v>
@@ -8361,28 +8361,28 @@
         <v>128.274129888769</v>
       </c>
       <c r="E3" t="n">
-        <v>0.212734211778333</v>
+        <v>0.0212734211778333</v>
       </c>
       <c r="F3" t="n">
         <v>-26.5518478650879</v>
       </c>
       <c r="G3" t="n">
-        <v>27.2882959134389</v>
+        <v>2.72882959134389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.514129334560024</v>
+        <v>0.0514129334560024</v>
       </c>
       <c r="I3" t="n">
-        <v>-13.6510838742166</v>
+        <v>-1.36510838742166</v>
       </c>
       <c r="J3" t="n">
-        <v>-327.626012981199</v>
+        <v>-32.7626012981199</v>
       </c>
       <c r="K3" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L3" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M3" t="n">
         <v>6.24368189171242</v>
@@ -8391,7 +8391,7 @@
         <v>0.5</v>
       </c>
       <c r="O3" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P3" t="n">
         <v>12.4873637834248</v>
@@ -8414,28 +8414,28 @@
         <v>154.825977753857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.815524457341714</v>
+        <v>0.0815524457341714</v>
       </c>
       <c r="F4" t="n">
         <v>63.329745245784</v>
       </c>
       <c r="G4" t="n">
-        <v>126.264371490115</v>
+        <v>12.6264371490115</v>
       </c>
       <c r="H4" t="n">
-        <v>1.12061595309586</v>
+        <v>0.112061595309586</v>
       </c>
       <c r="I4" t="n">
-        <v>70.9683228279221</v>
+        <v>7.09683228279221</v>
       </c>
       <c r="J4" t="n">
-        <v>1703.23974787013</v>
+        <v>170.323974787013</v>
       </c>
       <c r="K4" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L4" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M4" t="n">
         <v>6.24368189171242</v>
@@ -8444,7 +8444,7 @@
         <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P4" t="n">
         <v>12.4873637834248</v>
@@ -8467,28 +8467,28 @@
         <v>91.4962325080732</v>
       </c>
       <c r="E5" t="n">
-        <v>1.42570744885</v>
+        <v>0.142570744885</v>
       </c>
       <c r="F5" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G5" t="n">
-        <v>130.446860228471</v>
+        <v>13.0446860228471</v>
       </c>
       <c r="H5" t="n">
-        <v>1.74786697475</v>
+        <v>0.174786697475</v>
       </c>
       <c r="I5" t="n">
-        <v>47.0362479749731</v>
+        <v>4.70362479749731</v>
       </c>
       <c r="J5" t="n">
-        <v>1128.86995139935</v>
+        <v>112.886995139935</v>
       </c>
       <c r="K5" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L5" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M5" t="n">
         <v>6.24368189171242</v>
@@ -8497,7 +8497,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P5" t="n">
         <v>12.4873637834248</v>
@@ -8520,28 +8520,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E6" t="n">
-        <v>2.07002650065</v>
+        <v>0.207002650065</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>133.693853648009</v>
+        <v>13.3693853648009</v>
       </c>
       <c r="H6" t="n">
-        <v>2.309960754925</v>
+        <v>0.2309960754925</v>
       </c>
       <c r="I6" t="n">
-        <v>24.8650242726049</v>
+        <v>2.48650242726049</v>
       </c>
       <c r="J6" t="n">
-        <v>596.760582542518</v>
+        <v>59.6760582542518</v>
       </c>
       <c r="K6" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L6" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M6" t="n">
         <v>6.24368189171242</v>
@@ -8550,7 +8550,7 @@
         <v>0.5</v>
       </c>
       <c r="O6" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P6" t="n">
         <v>12.4873637834248</v>
@@ -8573,28 +8573,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5498950092</v>
+        <v>0.25498950092</v>
       </c>
       <c r="F7" t="n">
         <v>-51.1302475780409</v>
       </c>
       <c r="G7" t="n">
-        <v>137.238698019376</v>
+        <v>13.7238698019376</v>
       </c>
       <c r="H7" t="n">
-        <v>5.80417089275</v>
+        <v>0.580417089275</v>
       </c>
       <c r="I7" t="n">
-        <v>-296.768694731566</v>
+        <v>-29.6768694731566</v>
       </c>
       <c r="J7" t="n">
-        <v>-7122.44867355759</v>
+        <v>-712.244867355759</v>
       </c>
       <c r="K7" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L7" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M7" t="n">
         <v>6.24368189171242</v>
@@ -8603,7 +8603,7 @@
         <v>0.5</v>
       </c>
       <c r="O7" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P7" t="n">
         <v>12.4873637834248</v>
@@ -8626,28 +8626,28 @@
         <v>104.951560818084</v>
       </c>
       <c r="E8" t="n">
-        <v>9.0584467763</v>
+        <v>0.90584467763</v>
       </c>
       <c r="F8" t="n">
         <v>13.4553283100108</v>
       </c>
       <c r="G8" t="n">
-        <v>950.698127760226</v>
+        <v>95.0698127760226</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5178058698</v>
+        <v>1.05178058698</v>
       </c>
       <c r="I8" t="n">
-        <v>141.520531079117</v>
+        <v>14.1520531079117</v>
       </c>
       <c r="J8" t="n">
-        <v>3396.49274589882</v>
+        <v>339.649274589882</v>
       </c>
       <c r="K8" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L8" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M8" t="n">
         <v>6.24368189171242</v>
@@ -8656,7 +8656,7 @@
         <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P8" t="n">
         <v>12.4873637834248</v>
@@ -8679,28 +8679,28 @@
         <v>91.4962325080732</v>
       </c>
       <c r="E9" t="n">
-        <v>11.9771649633</v>
+        <v>1.19771649633</v>
       </c>
       <c r="F9" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G9" t="n">
-        <v>1095.86547026964</v>
+        <v>109.586547026964</v>
       </c>
       <c r="H9" t="n">
-        <v>8.4675672353</v>
+        <v>0.84675672353</v>
       </c>
       <c r="I9" t="n">
-        <v>455.735588552207</v>
+        <v>45.5735588552207</v>
       </c>
       <c r="J9" t="n">
-        <v>10937.654125253</v>
+        <v>1093.7654125253</v>
       </c>
       <c r="K9" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L9" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M9" t="n">
         <v>6.24368189171242</v>
@@ -8709,7 +8709,7 @@
         <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P9" t="n">
         <v>12.4873637834248</v>
@@ -8732,28 +8732,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E10" t="n">
-        <v>4.9579695073</v>
+        <v>0.49579695073</v>
       </c>
       <c r="F10" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G10" t="n">
-        <v>186.791100920883</v>
+        <v>18.6791100920883</v>
       </c>
       <c r="H10" t="n">
-        <v>7.5033973891</v>
+        <v>0.75033973891</v>
       </c>
       <c r="I10" t="n">
-        <v>-40.3842701243272</v>
+        <v>-4.03842701243272</v>
       </c>
       <c r="J10" t="n">
-        <v>-969.222482983853</v>
+        <v>-96.9222482983853</v>
       </c>
       <c r="K10" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L10" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M10" t="n">
         <v>6.24368189171242</v>
@@ -8762,7 +8762,7 @@
         <v>0.5</v>
       </c>
       <c r="O10" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P10" t="n">
         <v>12.4873637834248</v>
@@ -8785,28 +8785,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E11" t="n">
-        <v>10.0488252709</v>
+        <v>1.00488252709</v>
       </c>
       <c r="F11" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G11" t="n">
-        <v>432.672778079656</v>
+        <v>43.2672778079656</v>
       </c>
       <c r="H11" t="n">
-        <v>9.43538929145</v>
+        <v>0.943538929145</v>
       </c>
       <c r="I11" t="n">
-        <v>203.130017038751</v>
+        <v>20.3130017038751</v>
       </c>
       <c r="J11" t="n">
-        <v>4875.12040893003</v>
+        <v>487.512040893003</v>
       </c>
       <c r="K11" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L11" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M11" t="n">
         <v>6.24368189171242</v>
@@ -8815,7 +8815,7 @@
         <v>0.5</v>
       </c>
       <c r="O11" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P11" t="n">
         <v>12.4873637834248</v>
@@ -8838,28 +8838,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E12" t="n">
-        <v>8.821953312</v>
+        <v>0.8821953312</v>
       </c>
       <c r="F12" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>189.923645037675</v>
+        <v>18.9923645037675</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5465716901</v>
+        <v>1.05465716901</v>
       </c>
       <c r="I12" t="n">
-        <v>-113.526067708288</v>
+        <v>-11.3526067708289</v>
       </c>
       <c r="J12" t="n">
-        <v>-2724.62562499892</v>
+        <v>-272.462562499892</v>
       </c>
       <c r="K12" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L12" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M12" t="n">
         <v>6.24368189171242</v>
@@ -8868,7 +8868,7 @@
         <v>0.5</v>
       </c>
       <c r="O12" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P12" t="n">
         <v>12.4873637834248</v>
@@ -8891,28 +8891,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2711900682</v>
+        <v>1.22711900682</v>
       </c>
       <c r="F13" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G13" t="n">
-        <v>396.270938693219</v>
+        <v>39.6270938693219</v>
       </c>
       <c r="H13" t="n">
-        <v>9.9199208456</v>
+        <v>0.99199208456</v>
       </c>
       <c r="I13" t="n">
-        <v>213.561266858988</v>
+        <v>21.3561266858988</v>
       </c>
       <c r="J13" t="n">
-        <v>5125.47040461572</v>
+        <v>512.547040461572</v>
       </c>
       <c r="K13" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L13" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M13" t="n">
         <v>6.24368189171242</v>
@@ -8921,7 +8921,7 @@
         <v>0.5</v>
       </c>
       <c r="O13" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P13" t="n">
         <v>12.4873637834248</v>
@@ -8944,28 +8944,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>7.568651623</v>
+        <v>0.7568651623</v>
       </c>
       <c r="F14" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G14" t="n">
-        <v>81.4709539612487</v>
+        <v>8.14709539612487</v>
       </c>
       <c r="H14" t="n">
-        <v>27.8230019115</v>
+        <v>2.78230019115</v>
       </c>
       <c r="I14" t="n">
-        <v>-898.482300694295</v>
+        <v>-89.8482300694295</v>
       </c>
       <c r="J14" t="n">
-        <v>-21563.5752166631</v>
+        <v>-2156.35752166631</v>
       </c>
       <c r="K14" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L14" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M14" t="n">
         <v>6.24368189171242</v>
@@ -8974,7 +8974,7 @@
         <v>0.5</v>
       </c>
       <c r="O14" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P14" t="n">
         <v>12.4873637834248</v>
@@ -8997,28 +8997,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E15" t="n">
-        <v>48.0773522</v>
+        <v>4.80773522</v>
       </c>
       <c r="F15" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G15" t="n">
-        <v>2070.06898600646</v>
+        <v>207.006898600646</v>
       </c>
       <c r="H15" t="n">
-        <v>42.951388303</v>
+        <v>4.2951388303</v>
       </c>
       <c r="I15" t="n">
-        <v>462.340024790097</v>
+        <v>46.2340024790097</v>
       </c>
       <c r="J15" t="n">
-        <v>11096.1605949623</v>
+        <v>1109.61605949623</v>
       </c>
       <c r="K15" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L15" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M15" t="n">
         <v>6.24368189171242</v>
@@ -9027,7 +9027,7 @@
         <v>0.5</v>
       </c>
       <c r="O15" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P15" t="n">
         <v>12.4873637834248</v>
@@ -9050,28 +9050,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E16" t="n">
-        <v>37.825424406</v>
+        <v>3.7825424406</v>
       </c>
       <c r="F16" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G16" t="n">
-        <v>1221.48840923574</v>
+        <v>122.148840923574</v>
       </c>
       <c r="H16" t="n">
-        <v>62.246268598</v>
+        <v>6.2246268598</v>
       </c>
       <c r="I16" t="n">
-        <v>-670.035184047362</v>
+        <v>-67.0035184047362</v>
       </c>
       <c r="J16" t="n">
-        <v>-16080.8444171367</v>
+        <v>-1608.08444171367</v>
       </c>
       <c r="K16" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L16" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M16" t="n">
         <v>6.24368189171242</v>
@@ -9080,7 +9080,7 @@
         <v>0.5</v>
       </c>
       <c r="O16" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P16" t="n">
         <v>12.4873637834248</v>
@@ -9103,28 +9103,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E17" t="n">
-        <v>86.66711279</v>
+        <v>8.666711279</v>
       </c>
       <c r="F17" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G17" t="n">
-        <v>3731.63026006458</v>
+        <v>373.163026006458</v>
       </c>
       <c r="H17" t="n">
-        <v>57.5256977705</v>
+        <v>5.75256977705</v>
       </c>
       <c r="I17" t="n">
-        <v>1238.44343962325</v>
+        <v>123.844343962325</v>
       </c>
       <c r="J17" t="n">
-        <v>29722.642550958</v>
+        <v>2972.2642550958</v>
       </c>
       <c r="K17" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L17" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M17" t="n">
         <v>6.24368189171242</v>
@@ -9133,7 +9133,7 @@
         <v>0.5</v>
       </c>
       <c r="O17" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P17" t="n">
         <v>12.4873637834248</v>
@@ -9156,28 +9156,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E18" t="n">
-        <v>28.384282751</v>
+        <v>2.8384282751</v>
       </c>
       <c r="F18" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G18" t="n">
-        <v>611.071749214209</v>
+        <v>61.1071749214209</v>
       </c>
       <c r="H18" t="n">
-        <v>29.4204809055</v>
+        <v>2.94204809055</v>
       </c>
       <c r="I18" t="n">
-        <v>316.689783697524</v>
+        <v>31.6689783697524</v>
       </c>
       <c r="J18" t="n">
-        <v>7600.55480874058</v>
+        <v>760.055480874058</v>
       </c>
       <c r="K18" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L18" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M18" t="n">
         <v>6.24368189171242</v>
@@ -9186,7 +9186,7 @@
         <v>0.5</v>
       </c>
       <c r="O18" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P18" t="n">
         <v>12.4873637834248</v>
@@ -9209,16 +9209,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E19" t="n">
-        <v>30.45667906</v>
+        <v>3.045667906</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>327.843692787944</v>
+        <v>32.7843692787944</v>
       </c>
       <c r="H19" t="n">
-        <v>17.3005492655</v>
+        <v>1.73005492655</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -9227,10 +9227,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L19" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M19" t="n">
         <v>6.24368189171242</v>
@@ -9239,7 +9239,7 @@
         <v>0.5</v>
       </c>
       <c r="O19" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P19" t="n">
         <v>12.4873637834248</v>
@@ -9262,28 +9262,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E20" t="n">
-        <v>4.144419471</v>
+        <v>0.4144419471</v>
       </c>
       <c r="F20" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G20" t="n">
-        <v>44.6116197093649</v>
+        <v>4.46116197093649</v>
       </c>
       <c r="H20" t="n">
-        <v>43.249484228</v>
+        <v>4.3249484228</v>
       </c>
       <c r="I20" t="n">
-        <v>-232.774403810549</v>
+        <v>-23.2774403810549</v>
       </c>
       <c r="J20" t="n">
-        <v>-5586.58569145318</v>
+        <v>-558.658569145318</v>
       </c>
       <c r="K20" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L20" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M20" t="n">
         <v>6.24368189171242</v>
@@ -9292,7 +9292,7 @@
         <v>0.5</v>
       </c>
       <c r="O20" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P20" t="n">
         <v>12.4873637834248</v>
@@ -9315,28 +9315,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E21" t="n">
-        <v>82.354548985</v>
+        <v>8.2354548985</v>
       </c>
       <c r="F21" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G21" t="n">
-        <v>1329.72899329925</v>
+        <v>132.972899329925</v>
       </c>
       <c r="H21" t="n">
-        <v>75.632761949</v>
+        <v>7.5632761949</v>
       </c>
       <c r="I21" t="n">
-        <v>-407.065457206674</v>
+        <v>-40.7065457206674</v>
       </c>
       <c r="J21" t="n">
-        <v>-9769.57097296017</v>
+        <v>-976.957097296017</v>
       </c>
       <c r="K21" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L21" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M21" t="n">
         <v>6.24368189171242</v>
@@ -9345,7 +9345,7 @@
         <v>0.5</v>
       </c>
       <c r="O21" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P21" t="n">
         <v>12.4873637834248</v>
@@ -9368,28 +9368,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E22" t="n">
-        <v>68.910974913</v>
+        <v>6.8910974913</v>
       </c>
       <c r="F22" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G22" t="n">
-        <v>1483.55166658773</v>
+        <v>148.355166658773</v>
       </c>
       <c r="H22" t="n">
-        <v>38.9734056475</v>
+        <v>3.89734056475</v>
       </c>
       <c r="I22" t="n">
-        <v>419.519974677072</v>
+        <v>41.9519974677072</v>
       </c>
       <c r="J22" t="n">
-        <v>10068.4793922497</v>
+        <v>1006.84793922497</v>
       </c>
       <c r="K22" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L22" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M22" t="n">
         <v>6.24368189171242</v>
@@ -9398,7 +9398,7 @@
         <v>0.5</v>
       </c>
       <c r="O22" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P22" t="n">
         <v>12.4873637834248</v>
@@ -9421,16 +9421,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E23" t="n">
-        <v>9.035836382</v>
+        <v>0.9035836382</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>97.2641160602799</v>
+        <v>9.72641160602799</v>
       </c>
       <c r="H23" t="n">
-        <v>60.982940041</v>
+        <v>6.0982940041</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -9439,10 +9439,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L23" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M23" t="n">
         <v>6.24368189171242</v>
@@ -9451,7 +9451,7 @@
         <v>0.5</v>
       </c>
       <c r="O23" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P23" t="n">
         <v>12.4873637834248</v>
@@ -9474,16 +9474,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E24" t="n">
-        <v>112.9300437</v>
+        <v>11.29300437</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1215.60865123789</v>
+        <v>121.560865123789</v>
       </c>
       <c r="H24" t="n">
-        <v>167.677003</v>
+        <v>16.7677003</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L24" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M24" t="n">
         <v>6.24368189171242</v>
@@ -9504,7 +9504,7 @@
         <v>0.5</v>
       </c>
       <c r="O24" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P24" t="n">
         <v>12.4873637834248</v>
@@ -9527,28 +9527,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E25" t="n">
-        <v>222.4239623</v>
+        <v>22.24239623</v>
       </c>
       <c r="F25" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G25" t="n">
-        <v>2394.22994940797</v>
+        <v>239.422994940797</v>
       </c>
       <c r="H25" t="n">
-        <v>111.21198115</v>
+        <v>11.121198115</v>
       </c>
       <c r="I25" t="n">
-        <v>1197.11497470398</v>
+        <v>119.711497470398</v>
       </c>
       <c r="J25" t="n">
-        <v>28730.7593928956</v>
+        <v>2873.07593928956</v>
       </c>
       <c r="K25" t="n">
-        <v>18415.7692048562</v>
+        <v>1841.57692048562</v>
       </c>
       <c r="L25" t="n">
-        <v>114982.204706316</v>
+        <v>11498.2204706316</v>
       </c>
       <c r="M25" t="n">
         <v>6.24368189171242</v>
@@ -9557,7 +9557,7 @@
         <v>0.5</v>
       </c>
       <c r="O25" t="n">
-        <v>229964.409412632</v>
+        <v>22996.4409412632</v>
       </c>
       <c r="P25" t="n">
         <v>12.4873637834248</v>
@@ -13656,28 +13656,28 @@
         <v>23.6813778256189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01364</v>
+        <v>0.001364</v>
       </c>
       <c r="F2" t="n">
         <v>23.6813778256189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.323013993541442</v>
+        <v>0.0323013993541442</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00682</v>
+        <v>0.000682</v>
       </c>
       <c r="I2" t="n">
-        <v>0.161506996770721</v>
+        <v>0.0161506996770721</v>
       </c>
       <c r="J2" t="n">
-        <v>0.161506996770721</v>
+        <v>0.0161506996770721</v>
       </c>
       <c r="K2" t="n">
-        <v>0.323013993541442</v>
+        <v>0.0323013993541442</v>
       </c>
       <c r="L2" t="n">
-        <v>0.161506996770721</v>
+        <v>0.0161506996770721</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -13686,7 +13686,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0134589163975601</v>
+        <v>0.00134589163975601</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -16870,28 +16870,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2170674235</v>
+        <v>0.02170674235</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>2.33657075888052</v>
+        <v>0.233657075888052</v>
       </c>
       <c r="H2" t="n">
-        <v>0.10853371175</v>
+        <v>0.010853371175</v>
       </c>
       <c r="I2" t="n">
-        <v>1.16828537944026</v>
+        <v>0.116828537944026</v>
       </c>
       <c r="J2" t="n">
-        <v>1.16828537944026</v>
+        <v>0.116828537944026</v>
       </c>
       <c r="K2" t="n">
-        <v>2.33657075888052</v>
+        <v>0.233657075888052</v>
       </c>
       <c r="L2" t="n">
-        <v>1.16828537944026</v>
+        <v>0.116828537944026</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -16900,7 +16900,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0973571149533549</v>
+        <v>0.00973571149533549</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -17615,28 +17615,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0456865098</v>
+        <v>0.00456865098</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.49178159095802</v>
+        <v>0.0491781590958019</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1137594892</v>
+        <v>0.01137594892</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.2245370204521</v>
+        <v>-0.12245370204521</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.34722212271259</v>
+        <v>-0.73472221227126</v>
       </c>
       <c r="K2" t="n">
-        <v>21.1487165069968</v>
+        <v>2.11487165069968</v>
       </c>
       <c r="L2" t="n">
-        <v>37.1582695026911</v>
+        <v>3.71582695026911</v>
       </c>
       <c r="M2" t="n">
         <v>1.75699879897665</v>
@@ -17645,7 +17645,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>18.5791347513455</v>
+        <v>1.85791347513455</v>
       </c>
       <c r="P2" t="n">
         <v>0.878499399488327</v>
@@ -17668,28 +17668,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1818324686</v>
+        <v>0.01818324686</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>3.91458489989236</v>
+        <v>0.391458489989236</v>
       </c>
       <c r="H3" t="n">
-        <v>0.16843738215</v>
+        <v>0.016843738215</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8131042212056</v>
+        <v>0.18131042212056</v>
       </c>
       <c r="J3" t="n">
-        <v>10.8786253272336</v>
+        <v>1.08786253272336</v>
       </c>
       <c r="K3" t="n">
-        <v>21.1487165069968</v>
+        <v>2.11487165069968</v>
       </c>
       <c r="L3" t="n">
-        <v>37.1582695026911</v>
+        <v>3.71582695026911</v>
       </c>
       <c r="M3" t="n">
         <v>1.75699879897665</v>
@@ -17698,7 +17698,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>18.5791347513455</v>
+        <v>1.85791347513455</v>
       </c>
       <c r="P3" t="n">
         <v>0.878499399488327</v>
@@ -17721,16 +17721,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1550422957</v>
+        <v>0.01550422957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.66891599246502</v>
+        <v>0.166891599246502</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1974218524</v>
+        <v>0.01974218524</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -17739,10 +17739,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.1487165069968</v>
+        <v>2.11487165069968</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1582695026911</v>
+        <v>3.71582695026911</v>
       </c>
       <c r="M4" t="n">
         <v>1.75699879897665</v>
@@ -17751,7 +17751,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5791347513455</v>
+        <v>1.85791347513455</v>
       </c>
       <c r="P4" t="n">
         <v>0.878499399488327</v>
@@ -17774,16 +17774,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2398014091</v>
+        <v>0.02398014091</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58128535091496</v>
+        <v>0.258128535091496</v>
       </c>
       <c r="H5" t="n">
-        <v>0.29326451975</v>
+        <v>0.029326451975</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -17792,10 +17792,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>21.1487165069968</v>
+        <v>2.11487165069968</v>
       </c>
       <c r="L5" t="n">
-        <v>37.1582695026911</v>
+        <v>3.71582695026911</v>
       </c>
       <c r="M5" t="n">
         <v>1.75699879897665</v>
@@ -17804,7 +17804,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5791347513455</v>
+        <v>1.85791347513455</v>
       </c>
       <c r="P5" t="n">
         <v>0.878499399488327</v>
@@ -17827,16 +17827,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3467276304</v>
+        <v>0.03467276304</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.73226728094726</v>
+        <v>0.373226728094726</v>
       </c>
       <c r="H6" t="n">
-        <v>0.58026030585</v>
+        <v>0.058026030585</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -17845,10 +17845,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>21.1487165069968</v>
+        <v>2.11487165069968</v>
       </c>
       <c r="L6" t="n">
-        <v>37.1582695026911</v>
+        <v>3.71582695026911</v>
       </c>
       <c r="M6" t="n">
         <v>1.75699879897665</v>
@@ -17857,7 +17857,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5791347513455</v>
+        <v>1.85791347513455</v>
       </c>
       <c r="P6" t="n">
         <v>0.878499399488327</v>
@@ -17880,28 +17880,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8137929813</v>
+        <v>0.08137929813</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>8.75988139181916</v>
+        <v>0.875988139181916</v>
       </c>
       <c r="H7" t="n">
-        <v>0.40689649065</v>
+        <v>0.040689649065</v>
       </c>
       <c r="I7" t="n">
-        <v>4.37994069590958</v>
+        <v>0.437994069590958</v>
       </c>
       <c r="J7" t="n">
-        <v>26.2796441754575</v>
+        <v>2.62796441754575</v>
       </c>
       <c r="K7" t="n">
-        <v>21.1487165069968</v>
+        <v>2.11487165069968</v>
       </c>
       <c r="L7" t="n">
-        <v>37.1582695026911</v>
+        <v>3.71582695026911</v>
       </c>
       <c r="M7" t="n">
         <v>1.75699879897665</v>
@@ -17910,7 +17910,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5791347513455</v>
+        <v>1.85791347513455</v>
       </c>
       <c r="P7" t="n">
         <v>0.878499399488327</v>
@@ -24559,28 +24559,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2604228892</v>
+        <v>0.02604228892</v>
       </c>
       <c r="F2" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G2" t="n">
-        <v>11.2130415156082</v>
+        <v>1.12130415156082</v>
       </c>
       <c r="H2" t="n">
-        <v>0.358539608266667</v>
+        <v>0.0358539608266667</v>
       </c>
       <c r="I2" t="n">
-        <v>2.57294300873101</v>
+        <v>0.257294300873101</v>
       </c>
       <c r="J2" t="n">
-        <v>48.8859171658893</v>
+        <v>4.88859171658893</v>
       </c>
       <c r="K2" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L2" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M2" t="n">
         <v>5.10386847305017</v>
@@ -24589,10 +24589,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O2" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P2" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0149676947586676</v>
@@ -24612,28 +24612,28 @@
         <v>35.880875493362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.456656327333333</v>
+        <v>0.0456656327333333</v>
       </c>
       <c r="F3" t="n">
         <v>-17.940437746681</v>
       </c>
       <c r="G3" t="n">
-        <v>16.3852288243033</v>
+        <v>1.63852288243033</v>
       </c>
       <c r="H3" t="n">
-        <v>0.838230134166667</v>
+        <v>0.0838230134166667</v>
       </c>
       <c r="I3" t="n">
-        <v>-15.0382155394092</v>
+        <v>-1.50382155394092</v>
       </c>
       <c r="J3" t="n">
-        <v>-285.726095248774</v>
+        <v>-28.5726095248774</v>
       </c>
       <c r="K3" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M3" t="n">
         <v>5.10386847305017</v>
@@ -24642,10 +24642,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O3" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P3" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0149676947586676</v>
@@ -24665,28 +24665,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E4" t="n">
-        <v>1.219803941</v>
+        <v>0.1219803941</v>
       </c>
       <c r="F4" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>65.65145</v>
+        <v>6.565145</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8053596482</v>
+        <v>0.08053596482</v>
       </c>
       <c r="I4" t="n">
-        <v>34.6764111173305</v>
+        <v>3.46764111173305</v>
       </c>
       <c r="J4" t="n">
-        <v>658.851811229279</v>
+        <v>65.8851811229279</v>
       </c>
       <c r="K4" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L4" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M4" t="n">
         <v>5.10386847305017</v>
@@ -24695,10 +24695,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O4" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P4" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0149676947586676</v>
@@ -24718,28 +24718,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3909153554</v>
+        <v>0.03909153554</v>
       </c>
       <c r="F5" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>4.20791555866523</v>
+        <v>0.420791555866523</v>
       </c>
       <c r="H5" t="n">
-        <v>1.06902903745</v>
+        <v>0.106902903745</v>
       </c>
       <c r="I5" t="n">
-        <v>-23.0146186749193</v>
+        <v>-2.30146186749193</v>
       </c>
       <c r="J5" t="n">
-        <v>-437.277754823466</v>
+        <v>-43.7277754823466</v>
       </c>
       <c r="K5" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L5" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M5" t="n">
         <v>5.10386847305017</v>
@@ -24748,10 +24748,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O5" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P5" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0149676947586676</v>
@@ -24771,28 +24771,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E6" t="n">
-        <v>1.7471427195</v>
+        <v>0.17471427195</v>
       </c>
       <c r="F6" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>56.4201093487621</v>
+        <v>5.64201093487621</v>
       </c>
       <c r="H6" t="n">
-        <v>1.43130229075</v>
+        <v>0.143130229075</v>
       </c>
       <c r="I6" t="n">
-        <v>30.8138275726588</v>
+        <v>3.08138275726588</v>
       </c>
       <c r="J6" t="n">
-        <v>585.462723880517</v>
+        <v>58.5462723880517</v>
       </c>
       <c r="K6" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L6" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M6" t="n">
         <v>5.10386847305017</v>
@@ -24801,10 +24801,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O6" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P6" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0149676947586676</v>
@@ -24824,16 +24824,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.115461862</v>
+        <v>0.1115461862</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>12.0071244564047</v>
+        <v>1.20071244564047</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7313206685</v>
+        <v>0.17313206685</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -24842,10 +24842,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L7" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M7" t="n">
         <v>5.10386847305017</v>
@@ -24854,10 +24854,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O7" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P7" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0149676947586676</v>
@@ -24877,16 +24877,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>2.347179475</v>
+        <v>0.2347179475</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>25.265656350915</v>
+        <v>2.5265656350915</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6170708645</v>
+        <v>0.26170708645</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L8" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M8" t="n">
         <v>5.10386847305017</v>
@@ -24907,10 +24907,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O8" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P8" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q8" t="n">
         <v>0.0149676947586676</v>
@@ -24930,16 +24930,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>2.886962254</v>
+        <v>0.2886962254</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>31.076019956943</v>
+        <v>3.1076019956943</v>
       </c>
       <c r="H9" t="n">
-        <v>3.191880738</v>
+        <v>0.3191880738</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -24948,10 +24948,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L9" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M9" t="n">
         <v>5.10386847305017</v>
@@ -24960,10 +24960,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O9" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P9" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0149676947586676</v>
@@ -24983,16 +24983,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>3.496799222</v>
+        <v>0.3496799222</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>37.6404652529602</v>
+        <v>3.76404652529602</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8383000485</v>
+        <v>0.38383000485</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L10" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M10" t="n">
         <v>5.10386847305017</v>
@@ -25013,10 +25013,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O10" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P10" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0149676947586676</v>
@@ -25036,16 +25036,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>4.179800875</v>
+        <v>0.4179800875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.9924744348762</v>
+        <v>4.49924744348762</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4386934065</v>
+        <v>0.54386934065</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -25054,10 +25054,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L11" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M11" t="n">
         <v>5.10386847305017</v>
@@ -25066,10 +25066,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O11" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P11" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0149676947586676</v>
@@ -25089,28 +25089,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>6.697585938</v>
+        <v>0.6697585938</v>
       </c>
       <c r="F12" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G12" t="n">
-        <v>72.0945741442411</v>
+        <v>7.20945741442411</v>
       </c>
       <c r="H12" t="n">
-        <v>14.902774467</v>
+        <v>1.4902774467</v>
       </c>
       <c r="I12" t="n">
-        <v>-320.834757093649</v>
+        <v>-32.0834757093649</v>
       </c>
       <c r="J12" t="n">
-        <v>-6095.86038477933</v>
+        <v>-609.586038477933</v>
       </c>
       <c r="K12" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L12" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M12" t="n">
         <v>5.10386847305017</v>
@@ -25119,10 +25119,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O12" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P12" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q12" t="n">
         <v>0.0149676947586676</v>
@@ -25142,28 +25142,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E13" t="n">
-        <v>23.107962996</v>
+        <v>2.3107962996</v>
       </c>
       <c r="F13" t="n">
         <v>-17.940437746681</v>
       </c>
       <c r="G13" t="n">
-        <v>746.220548848224</v>
+        <v>74.6220548848224</v>
       </c>
       <c r="H13" t="n">
-        <v>32.0761831513333</v>
+        <v>3.20761831513333</v>
       </c>
       <c r="I13" t="n">
-        <v>-575.460766977634</v>
+        <v>-57.5460766977634</v>
       </c>
       <c r="J13" t="n">
-        <v>-10933.7545725751</v>
+        <v>-1093.3754572575</v>
       </c>
       <c r="K13" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L13" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M13" t="n">
         <v>5.10386847305017</v>
@@ -25172,10 +25172,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O13" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P13" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0149676947586676</v>
@@ -25195,28 +25195,28 @@
         <v>50.2332256907069</v>
       </c>
       <c r="E14" t="n">
-        <v>41.0444033066667</v>
+        <v>4.10444033066667</v>
       </c>
       <c r="F14" t="n">
         <v>39.4689630426982</v>
       </c>
       <c r="G14" t="n">
-        <v>2061.79277464418</v>
+        <v>206.179277464418</v>
       </c>
       <c r="H14" t="n">
-        <v>25.5111923853333</v>
+        <v>2.55111923853333</v>
       </c>
       <c r="I14" t="n">
-        <v>1006.90030943189</v>
+        <v>100.690030943189</v>
       </c>
       <c r="J14" t="n">
-        <v>19131.1058792058</v>
+        <v>1913.11058792058</v>
       </c>
       <c r="K14" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L14" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M14" t="n">
         <v>5.10386847305017</v>
@@ -25225,10 +25225,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O14" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P14" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q14" t="n">
         <v>0.0149676947586676</v>
@@ -25248,28 +25248,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E15" t="n">
-        <v>9.977981464</v>
+        <v>0.9977981464</v>
       </c>
       <c r="F15" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G15" t="n">
-        <v>107.405613175457</v>
+        <v>10.7405613175458</v>
       </c>
       <c r="H15" t="n">
-        <v>21.869280917</v>
+        <v>2.1869280917</v>
       </c>
       <c r="I15" t="n">
-        <v>-470.813367427341</v>
+        <v>-47.0813367427341</v>
       </c>
       <c r="J15" t="n">
-        <v>-8945.45398111948</v>
+        <v>-894.545398111949</v>
       </c>
       <c r="K15" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L15" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M15" t="n">
         <v>5.10386847305017</v>
@@ -25278,10 +25278,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O15" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P15" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0149676947586676</v>
@@ -25301,16 +25301,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E16" t="n">
-        <v>33.76058037</v>
+        <v>3.376058037</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1090.22326275565</v>
+        <v>109.022326275565</v>
       </c>
       <c r="H16" t="n">
-        <v>35.816935275</v>
+        <v>3.5816935275</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -25319,10 +25319,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L16" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M16" t="n">
         <v>5.10386847305017</v>
@@ -25331,10 +25331,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O16" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P16" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0149676947586676</v>
@@ -25354,28 +25354,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E17" t="n">
-        <v>37.87329018</v>
+        <v>3.787329018</v>
       </c>
       <c r="F17" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G17" t="n">
-        <v>1223.0341285253</v>
+        <v>122.30341285253</v>
       </c>
       <c r="H17" t="n">
-        <v>33.02985328</v>
+        <v>3.302985328</v>
       </c>
       <c r="I17" t="n">
-        <v>355.542015931109</v>
+        <v>35.5542015931109</v>
       </c>
       <c r="J17" t="n">
-        <v>6755.29830269107</v>
+        <v>675.529830269107</v>
       </c>
       <c r="K17" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L17" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M17" t="n">
         <v>5.10386847305017</v>
@@ -25384,10 +25384,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O17" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P17" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0149676947586676</v>
@@ -25407,28 +25407,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E18" t="n">
-        <v>28.18641638</v>
+        <v>2.818641638</v>
       </c>
       <c r="F18" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G18" t="n">
-        <v>606.811978040904</v>
+        <v>60.6811978040904</v>
       </c>
       <c r="H18" t="n">
-        <v>21.924374795</v>
+        <v>2.1924374795</v>
       </c>
       <c r="I18" t="n">
-        <v>235.99972868676</v>
+        <v>23.599972868676</v>
       </c>
       <c r="J18" t="n">
-        <v>4483.99484504844</v>
+        <v>448.399484504844</v>
       </c>
       <c r="K18" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L18" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M18" t="n">
         <v>5.10386847305017</v>
@@ -25437,10 +25437,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O18" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P18" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q18" t="n">
         <v>0.0149676947586676</v>
@@ -25460,16 +25460,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E19" t="n">
-        <v>15.66233321</v>
+        <v>1.566233321</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>168.593468353068</v>
+        <v>16.8593468353068</v>
       </c>
       <c r="H19" t="n">
-        <v>17.386817945</v>
+        <v>1.7386817945</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L19" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M19" t="n">
         <v>5.10386847305017</v>
@@ -25490,10 +25490,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O19" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P19" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0149676947586676</v>
@@ -25513,28 +25513,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E20" t="n">
-        <v>19.11130268</v>
+        <v>1.911130268</v>
       </c>
       <c r="F20" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G20" t="n">
-        <v>205.719081593111</v>
+        <v>20.5719081593111</v>
       </c>
       <c r="H20" t="n">
-        <v>9.55565134</v>
+        <v>0.955565134</v>
       </c>
       <c r="I20" t="n">
-        <v>102.859540796555</v>
+        <v>10.2859540796555</v>
       </c>
       <c r="J20" t="n">
-        <v>1954.33127513455</v>
+        <v>195.433127513455</v>
       </c>
       <c r="K20" t="n">
-        <v>6586.75491577957</v>
+        <v>658.675491577957</v>
       </c>
       <c r="L20" t="n">
-        <v>33617.9307543556</v>
+        <v>3361.79307543556</v>
       </c>
       <c r="M20" t="n">
         <v>5.10386847305017</v>
@@ -25543,10 +25543,10 @@
         <v>0.631578947368421</v>
       </c>
       <c r="O20" t="n">
-        <v>53228.390361063</v>
+        <v>5322.8390361063</v>
       </c>
       <c r="P20" t="n">
-        <v>8.08112508232943</v>
+        <v>8.08112508232944</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0149676947586676</v>
